--- a/z0bug_odoo/z0bug_odoo/testenv/account_tax.xlsx
+++ b/z0bug_odoo/z0bug_odoo/testenv/account_tax.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="account_tax" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="account_tax" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -52,6 +52,33 @@
     <t xml:space="preserve">refund_account_id</t>
   </si>
   <si>
+    <t xml:space="preserve">kind_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">law_reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_22a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA 22% da acquisti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_generic_coa.conf_ova</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.tax_22v</t>
   </si>
   <si>
@@ -61,33 +88,12 @@
     <t xml:space="preserve">IVA 22% su vendite</t>
   </si>
   <si>
-    <t xml:space="preserve">percent</t>
-  </si>
-  <si>
     <t xml:space="preserve">sale</t>
   </si>
   <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
     <t xml:space="preserve">l10n_generic_coa.conf_iva</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.tax_22a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA 22% da acquisti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_generic_coa.conf_ova</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.tax_a17c2a</t>
   </si>
   <si>
@@ -97,73 +103,178 @@
     <t xml:space="preserve">Acq. (RC 22%) N.I. art.17 c.2 DPR633</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.tax_a17c2v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a17c2v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend. (RC 22%) N.I. art.17 c.2 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a41a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a41a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.N.I. art.41 L.427/93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a41v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a41v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a7ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.NI art.7ter DPR633 (servizi xUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a7tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.NI art.7ter DPR633 (servizi xUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_ade.n3_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI art.7ter DPR633 (servizi xUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a8aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.N.I. art.8a DPR633 (Dogana)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a8av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.N.I. art.8a DPR633 (Dogana)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a8c2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8c2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.N.I. art.8c2 DPR633 (lett.Intento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a8c2v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8c2v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.N.I. art.8c2 DPR633 (lett.Intento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a10a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a10a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.esente art.10 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a10v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a10v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.esente art.10 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a15a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a15a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.escluso art.15 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a15v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a15v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.escluso art.15 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.fuori campo IVA (art.1 DPR633)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a1v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.fuori campo IVA (art.1 DPR633)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_22vINC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22vINC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA 22% da scorporare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.tax_aa17c2v</t>
   </si>
   <si>
     <t xml:space="preserve">aa17c2v</t>
   </si>
   <si>
-    <t xml:space="preserve">Rev. charge art.17 c.2 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a17c2v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a17c2v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend. (RC 22%) N.I. art.17 c.2 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_aa41a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aa41a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.N.I. art.41 L.427/93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a41a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a41a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.N.I. art.41 L.427/93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a41v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a41v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a7ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a7ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.NI art.7ter DPR633 (servizi xUE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a7tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a7tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.NI art.7ter DPR633 (servizi xUE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a8aa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8aa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.N.I. art.8a DPR633 (Dogana)</t>
+    <t xml:space="preserve">Rev. Charge art.17 c.2 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_aa41v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aa41v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev. Charge art.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_ade.n3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.I. art.41 L.427/93</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.tax_aa8av</t>
@@ -173,99 +284,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rev. Charge art.8a DPR633 (Dogana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a8av</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8av</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.N.I. art.8a DPR633 (Dogana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a8c2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8c2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.N.I. art.8c2 DPR633 (lett.Intento)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a8c2v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8c2v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.N.I. art.8c2 DPR633 (lett.Intento)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a10a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a10a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.esente art.10 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a10v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a10v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.esente art.10 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a15a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a15a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.escluso art.15 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a15v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a15v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.escluso art.15 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.fuori campo IVA (art.1 DPR633)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a1v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a1v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.fuori campo IVA (art.1 DPR633)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_22vINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22vINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA 22% da scorporare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
   </si>
 </sst>
 </file>
@@ -367,7 +385,122 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,10 +508,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E23"/>
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -392,6 +525,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="23.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,16 +560,22 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
@@ -443,30 +584,30 @@
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
@@ -475,30 +616,30 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>23</v>
@@ -507,561 +648,573 @@
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" s="1" t="n">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>45</v>
-      </c>
       <c r="E12" s="2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>200</v>
-      </c>
       <c r="E13" s="2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>56</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>47</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>57</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>48</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>22</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/z0bug_odoo/testenv/account_tax.xlsx
+++ b/z0bug_odoo/z0bug_odoo/testenv/account_tax.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="88">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -127,6 +127,12 @@
     <t xml:space="preserve">a41v</t>
   </si>
   <si>
+    <t xml:space="preserve">l10n_it_ade.n3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.I. art.41 L.427/93</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.tax_a7ta</t>
   </si>
   <si>
@@ -269,12 +275,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rev. Charge art.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_ade.n3_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.I. art.41 L.427/93</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.tax_aa8av</t>
@@ -511,7 +511,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -752,16 +752,22 @@
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>43</v>
@@ -781,13 +787,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>44</v>
@@ -805,21 +811,21 @@
         <v>17</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>45</v>
@@ -845,13 +851,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>46</v>
@@ -877,13 +883,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>47</v>
@@ -903,13 +909,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>48</v>
@@ -929,13 +935,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>55</v>
@@ -955,13 +961,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>56</v>
@@ -981,13 +987,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>57</v>
@@ -1007,13 +1013,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>58</v>
@@ -1033,13 +1039,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>59</v>
@@ -1059,13 +1065,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>60</v>
@@ -1085,13 +1091,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>91</v>
@@ -1106,7 +1112,7 @@
         <v>22</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>23</v>
@@ -1117,13 +1123,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>200</v>
@@ -1149,13 +1155,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>200</v>
@@ -1179,10 +1185,10 @@
         <v>23</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/z0bug_odoo/z0bug_odoo/testenv/account_tax.xlsx
+++ b/z0bug_odoo/z0bug_odoo/testenv/account_tax.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">law_reference</t>
   </si>
   <si>
+    <t xml:space="preserve">rc</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.tax_22a</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t xml:space="preserve">Vend.N.I. art.41 L.427/93</t>
   </si>
   <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.tax_a41v</t>
   </si>
   <si>
@@ -254,9 +260,6 @@
   </si>
   <si>
     <t xml:space="preserve">IVA 22% da scorporare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.tax_aa17c2v</t>
@@ -385,15 +388,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -508,10 +502,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -525,8 +519,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="23.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="27.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,22 +554,25 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
@@ -584,30 +581,30 @@
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
@@ -616,30 +613,30 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>23</v>
@@ -648,30 +645,30 @@
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>24</v>
@@ -680,30 +677,30 @@
         <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>36</v>
@@ -712,30 +709,33 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>36</v>
@@ -744,30 +744,30 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>43</v>
@@ -776,24 +776,24 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>44</v>
@@ -802,30 +802,30 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>45</v>
@@ -834,30 +834,30 @@
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>46</v>
@@ -866,30 +866,30 @@
         <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>47</v>
@@ -898,24 +898,24 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>48</v>
@@ -924,24 +924,24 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>55</v>
@@ -950,24 +950,24 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>56</v>
@@ -976,24 +976,24 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>57</v>
@@ -1002,24 +1002,24 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>58</v>
@@ -1028,24 +1028,24 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>59</v>
@@ -1054,24 +1054,24 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>60</v>
@@ -1080,24 +1080,24 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>91</v>
@@ -1106,30 +1106,30 @@
         <v>22</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>200</v>
@@ -1138,30 +1138,30 @@
         <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>200</v>
@@ -1170,36 +1170,36 @@
         <v>22</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>200</v>
@@ -1208,19 +1208,19 @@
         <v>22</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/z0bug_odoo/testenv/account_tax.xlsx
+++ b/z0bug_odoo/z0bug_odoo/testenv/account_tax.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="account_tax" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">account_tax!$A$1:$M$26</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="103">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -97,6 +100,213 @@
     <t xml:space="preserve">l10n_generic_coa.conf_iva</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.tax_22vINC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22vINC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA 22% da scorporare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a17c6ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a17c6ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq. (RC 22%) N.I. Art.17 c.6 lett. C DPR633 (Elettronici)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_other_ova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_ade.n6_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a17c6cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a17c6cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend. (RC 22%) Art.17 c.6 lett. C DPR633 (Elettronici)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_other_iva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art.17 c.6 lett. C DPR633 (Elettronici)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_aa17c6cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aa17c6cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev. Charge Art.17 c.6 lett. C DPR633 (Elettronici)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a41a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a41a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.N.I. art.41 L.427/93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_ade.n6_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a41v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a41v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_ade.n3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.I. art.41 L.427/93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_aa41v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aa41v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev. Charge art.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a7ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.NI art.7ter DPR633 (servizi xUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a7tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.NI art.7ter DPR633 (servizi xUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_ade.n3_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI art.7ter DPR633 (servizi xUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a8aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.N.I. art.8a DPR633 (Dogana)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a8av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.N.I. art.8a DPR633 (Dogana)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_aa8av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aa8av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev. Charge art.8a DPR633 (Dogana)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a8c2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8c2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.N.I. art.8c2 DPR633 (lett.Intento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a8c2v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8c2v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.N.I. art.8c2 DPR633 (lett.Intento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a10a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a10a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.esente art.10 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a10v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a10v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.esente art.10 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a15a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a15a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.escluso art.15 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a15v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a15v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.escluso art.15 DPR633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acq.fuori campo IVA (art.1 DPR633)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a1v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vend.fuori campo IVA (art.1 DPR633)</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.tax_a17c2a</t>
   </si>
   <si>
@@ -115,153 +325,6 @@
     <t xml:space="preserve">Vend. (RC 22%) N.I. art.17 c.2 DPR633</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.tax_a41a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a41a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.N.I. art.41 L.427/93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a41v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a41v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_ade.n3_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.I. art.41 L.427/93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a7ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a7ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.NI art.7ter DPR633 (servizi xUE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a7tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a7tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.NI art.7ter DPR633 (servizi xUE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_ade.n3_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NI art.7ter DPR633 (servizi xUE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a8aa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8aa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.N.I. art.8a DPR633 (Dogana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a8av</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8av</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.N.I. art.8a DPR633 (Dogana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a8c2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8c2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.N.I. art.8c2 DPR633 (lett.Intento)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a8c2v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8c2v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.N.I. art.8c2 DPR633 (lett.Intento)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a10a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a10a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.esente art.10 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a10v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a10v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.esente art.10 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a15a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a15a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.escluso art.15 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a15v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a15v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.escluso art.15 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acq.fuori campo IVA (art.1 DPR633)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a1v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a1v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vend.fuori campo IVA (art.1 DPR633)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_22vINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22vINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA 22% da scorporare</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.tax_aa17c2v</t>
   </si>
   <si>
@@ -269,24 +332,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rev. Charge art.17 c.2 DPR633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_aa41v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aa41v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rev. Charge art.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_aa8av</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aa8av</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rev. Charge art.8a DPR633 (Dogana)</t>
   </si>
 </sst>
 </file>
@@ -297,7 +342,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -318,6 +363,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,7 +413,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,12 +422,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -388,7 +443,20 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,69 +570,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
+      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="23.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="27.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="32.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -577,7 +645,7 @@
       <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -589,14 +657,14 @@
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -609,7 +677,7 @@
       <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -639,109 +707,118 @@
         <v>27</v>
       </c>
       <c r="D4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="n">
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>16</v>
@@ -752,28 +829,32 @@
       <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -784,21 +865,33 @@
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -811,169 +904,189 @@
         <v>18</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="M13" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="n">
         <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>16</v>
@@ -984,21 +1097,27 @@
       <c r="H15" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="E16" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1011,20 +1130,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="E17" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1037,20 +1156,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="E18" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1063,20 +1182,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1089,53 +1208,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>16</v>
@@ -1146,66 +1259,48 @@
       <c r="H21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>16</v>
@@ -1216,14 +1311,114 @@
       <c r="H23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>19</v>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M26"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1231,5 +1426,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/z0bug_odoo/z0bug_odoo/testenv/account_tax.xlsx
+++ b/z0bug_odoo/z0bug_odoo/testenv/account_tax.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="105">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -298,6 +298,9 @@
     <t xml:space="preserve">Acq.fuori campo IVA (art.1 DPR633)</t>
   </si>
   <si>
+    <t xml:space="preserve">l10n_it_ade.n1</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.tax_a1v</t>
   </si>
   <si>
@@ -305,6 +308,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vend.fuori campo IVA (art.1 DPR633)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuori campo IVA (art.1 DPR633)</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.tax_a17c2a</t>
@@ -572,8 +578,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1040,7 +1046,7 @@
       <c r="K13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1285,16 +1291,19 @@
       <c r="H22" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="K22" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>60</v>
@@ -1311,16 +1320,22 @@
       <c r="H23" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="K23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>80</v>
@@ -1352,13 +1367,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>80</v>
@@ -1387,13 +1402,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>81</v>
